--- a/excel/dts.xlsx
+++ b/excel/dts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\svn\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="dts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Withheld</t>
   </si>
@@ -41,11 +41,23 @@
   <si>
     <t>YTD</t>
   </si>
+  <si>
+    <t>y/y</t>
+  </si>
+  <si>
+    <t>Withheld growing - increased employment.</t>
+  </si>
+  <si>
+    <t>Corporate declining - decreased earnings.</t>
+  </si>
+  <si>
+    <t>Individual growing - increased small business profits.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00%_);[Red]\(0.00%\)"/>
   </numFmts>
@@ -372,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -651,21 +663,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -803,6 +800,56 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -850,18 +897,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,9 +907,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -886,23 +921,43 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,6 +1092,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1072,6 +1144,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1224,1428 +1313,1481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="2" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6" t="s">
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="Q3" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>41670</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D4" s="6">
         <v>184981</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>695883</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10">
+      <c r="G4" s="9"/>
+      <c r="H4" s="6">
         <v>6304</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
         <v>10315</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="10">
+      <c r="K4" s="9"/>
+      <c r="L4" s="6">
         <v>10467</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12">
+      <c r="M4" s="7"/>
+      <c r="N4" s="8">
         <v>88461</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="10">
+      <c r="O4" s="9"/>
+      <c r="P4" s="6">
         <v>794659</v>
       </c>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
         <v>41697</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D5" s="6">
         <v>166360</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
         <v>862243</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10">
+      <c r="G5" s="9"/>
+      <c r="H5" s="6">
         <v>882</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8">
         <v>11197</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10">
+      <c r="K5" s="9"/>
+      <c r="L5" s="6">
         <v>8352</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12">
+      <c r="M5" s="7"/>
+      <c r="N5" s="8">
         <v>96814</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="10">
+      <c r="O5" s="9"/>
+      <c r="P5" s="6">
         <v>970254</v>
       </c>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
         <v>41726</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D6" s="6">
         <v>187641</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
         <v>1060624</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10">
+      <c r="G6" s="9"/>
+      <c r="H6" s="6">
         <v>2054</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12">
+      <c r="I6" s="7"/>
+      <c r="J6" s="8">
         <v>13451</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="10">
+      <c r="K6" s="9"/>
+      <c r="L6" s="6">
         <v>34760</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12">
+      <c r="M6" s="7"/>
+      <c r="N6" s="8">
         <v>131711</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="10">
+      <c r="O6" s="9"/>
+      <c r="P6" s="6">
         <v>1205786</v>
       </c>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>41759</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D7" s="6">
         <v>167588</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
         <v>1244547</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10">
+      <c r="G7" s="9"/>
+      <c r="H7" s="6">
         <v>39629</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12">
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
         <v>53245</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="10">
+      <c r="K7" s="9"/>
+      <c r="L7" s="6">
         <v>42736</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12">
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
         <v>174519</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="10">
+      <c r="O7" s="9"/>
+      <c r="P7" s="6">
         <v>1472311</v>
       </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <v>41788</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D8" s="6">
         <v>155039</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
         <v>1399587</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10">
+      <c r="G8" s="9"/>
+      <c r="H8" s="6">
         <v>1319</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12">
+      <c r="I8" s="7"/>
+      <c r="J8" s="8">
         <v>54564</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="10">
+      <c r="K8" s="9"/>
+      <c r="L8" s="6">
         <v>8288</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12">
+      <c r="M8" s="7"/>
+      <c r="N8" s="8">
         <v>182807</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="10">
+      <c r="O8" s="9"/>
+      <c r="P8" s="6">
         <v>1636958</v>
       </c>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <v>41820</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D9" s="6">
         <v>170656</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>1577451</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10">
+      <c r="G9" s="9"/>
+      <c r="H9" s="6">
         <v>7095</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12">
+      <c r="I9" s="7"/>
+      <c r="J9" s="8">
         <v>61713</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10">
+      <c r="K9" s="9"/>
+      <c r="L9" s="6">
         <v>70752</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12">
+      <c r="M9" s="7"/>
+      <c r="N9" s="8">
         <v>254279</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="10">
+      <c r="O9" s="9"/>
+      <c r="P9" s="6">
         <v>1893443</v>
       </c>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>41845</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D10" s="6">
         <v>139108</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
         <v>1716559</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10">
+      <c r="G10" s="9"/>
+      <c r="H10" s="6">
         <v>1040</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12">
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
         <v>62754</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="10">
+      <c r="K10" s="9"/>
+      <c r="L10" s="6">
         <v>10369</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12">
+      <c r="M10" s="7"/>
+      <c r="N10" s="8">
         <v>264648</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="10">
+      <c r="O10" s="9"/>
+      <c r="P10" s="6">
         <v>2043961</v>
       </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <v>41880</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D11" s="6">
         <v>160877</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
         <v>1903230</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10">
+      <c r="G11" s="9"/>
+      <c r="H11" s="6">
         <v>1110</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12">
+      <c r="I11" s="7"/>
+      <c r="J11" s="8">
         <v>64081</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="10">
+      <c r="K11" s="9"/>
+      <c r="L11" s="6">
         <v>5218</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12">
+      <c r="M11" s="7"/>
+      <c r="N11" s="8">
         <v>270094</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="10">
+      <c r="O11" s="9"/>
+      <c r="P11" s="6">
         <v>2237405</v>
       </c>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23">
         <v>41912</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31">
+      <c r="C12" s="29"/>
+      <c r="D12" s="25">
         <v>170609</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33">
+      <c r="E12" s="30"/>
+      <c r="F12" s="27">
         <v>2073839</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="31">
+      <c r="G12" s="31"/>
+      <c r="H12" s="25">
         <v>8397</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="33">
+      <c r="I12" s="30"/>
+      <c r="J12" s="27">
         <v>72478</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="31">
+      <c r="K12" s="31"/>
+      <c r="L12" s="25">
         <v>75238</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="33">
+      <c r="M12" s="30"/>
+      <c r="N12" s="27">
         <v>345332</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="31">
+      <c r="O12" s="31"/>
+      <c r="P12" s="25">
         <v>2491649</v>
       </c>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
         <v>41943</v>
       </c>
-      <c r="C12" s="25">
+      <c r="D13" s="19">
         <v>168567</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="27">
+      <c r="E13" s="7"/>
+      <c r="F13" s="21">
         <v>168567</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="19">
         <v>3131</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="27">
+      <c r="I13" s="7"/>
+      <c r="J13" s="21">
         <v>3131</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="25">
+      <c r="K13" s="9"/>
+      <c r="L13" s="19">
         <v>11361</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="27">
+      <c r="M13" s="7"/>
+      <c r="N13" s="21">
         <v>11361</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="25">
+      <c r="O13" s="9"/>
+      <c r="P13" s="19">
         <v>183059</v>
       </c>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
         <v>41971</v>
       </c>
-      <c r="C13" s="10">
+      <c r="D14" s="6">
         <v>163533</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
         <v>332100</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10">
+      <c r="G14" s="9"/>
+      <c r="H14" s="6">
         <v>1144</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12">
+      <c r="I14" s="7"/>
+      <c r="J14" s="8">
         <v>4275</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10">
+      <c r="K14" s="9"/>
+      <c r="L14" s="6">
         <v>5381</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12">
+      <c r="M14" s="7"/>
+      <c r="N14" s="8">
         <v>16742</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="10">
+      <c r="O14" s="9"/>
+      <c r="P14" s="6">
         <v>353117</v>
       </c>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
         <v>42004</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D15" s="6">
         <v>210280</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8">
         <v>542380</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10">
+      <c r="G15" s="9"/>
+      <c r="H15" s="6">
         <v>2249</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12">
+      <c r="I15" s="7"/>
+      <c r="J15" s="8">
         <v>6524</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="6">
         <v>86702</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12">
+      <c r="M15" s="7"/>
+      <c r="N15" s="8">
         <v>103444</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="10">
+      <c r="O15" s="9"/>
+      <c r="P15" s="6">
         <v>652348</v>
       </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
         <v>42034</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="10">
+      <c r="C16" s="10"/>
+      <c r="D16" s="6">
         <v>189536</v>
       </c>
-      <c r="D15" s="15">
-        <f t="shared" ref="D15:F30" si="0">(C15-C3)/C3</f>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16:G31" si="0">(D16-D4)/D4</f>
         <v>2.4624150588438812E-2</v>
       </c>
-      <c r="E15" s="12">
+      <c r="F16" s="8">
         <v>731918</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>5.1783130210107157E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H16" s="6">
         <v>9050</v>
       </c>
-      <c r="H15" s="15">
-        <f t="shared" ref="H15" si="1">(G15-G3)/G3</f>
+      <c r="I16" s="11">
+        <f t="shared" ref="I16" si="1">(H16-H4)/H4</f>
         <v>0.43559644670050762</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J16" s="8">
         <v>15574</v>
       </c>
-      <c r="J15" s="16">
-        <f t="shared" ref="J15" si="2">(I15-I3)/I3</f>
+      <c r="K16" s="12">
+        <f t="shared" ref="K16" si="2">(J16-J4)/J4</f>
         <v>0.50984003877847794</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L16" s="6">
         <v>10275</v>
       </c>
-      <c r="L15" s="15">
-        <f t="shared" ref="L15" si="3">(K15-K3)/K3</f>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16" si="3">(L16-L4)/L4</f>
         <v>-1.8343364860991689E-2</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N16" s="8">
         <v>113719</v>
       </c>
-      <c r="N15" s="16">
-        <f t="shared" ref="N15" si="4">(M15-M3)/M3</f>
+      <c r="O16" s="12">
+        <f t="shared" ref="O16" si="4">(N16-N4)/N4</f>
         <v>0.28552695538146755</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P16" s="6">
         <v>861211</v>
       </c>
-      <c r="P15" s="16">
-        <f t="shared" ref="P15" si="5">(O15-O3)/O3</f>
+      <c r="Q16" s="12">
+        <f t="shared" ref="Q16" si="5">(P16-P4)/P4</f>
         <v>8.3749130130030616E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
         <v>42061</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10">
+      <c r="C17" s="10"/>
+      <c r="D17" s="6">
         <v>175666</v>
       </c>
-      <c r="D16" s="17">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>5.5938927626833376E-2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F17" s="8">
         <v>907584</v>
       </c>
-      <c r="F16" s="18">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>5.2584944151474702E-2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H17" s="6">
         <v>1395</v>
       </c>
-      <c r="H16" s="17">
-        <f t="shared" ref="H16" si="6">(G16-G4)/G4</f>
+      <c r="I17" s="13">
+        <f t="shared" ref="I17" si="6">(H17-H5)/H5</f>
         <v>0.58163265306122447</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J17" s="8">
         <v>16969</v>
       </c>
-      <c r="J16" s="18">
-        <f t="shared" ref="J16" si="7">(I16-I4)/I4</f>
+      <c r="K17" s="14">
+        <f t="shared" ref="K17" si="7">(J17-J5)/J5</f>
         <v>0.51549522193444675</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L17" s="6">
         <v>4390</v>
       </c>
-      <c r="L16" s="17">
-        <f t="shared" ref="L16" si="8">(K16-K4)/K4</f>
+      <c r="M17" s="13">
+        <f t="shared" ref="M17" si="8">(L17-L5)/L5</f>
         <v>-0.4743773946360153</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N17" s="8">
         <v>118109</v>
       </c>
-      <c r="N16" s="18">
-        <f t="shared" ref="N16" si="9">(M16-M4)/M4</f>
+      <c r="O17" s="14">
+        <f t="shared" ref="O17" si="9">(N17-N5)/N5</f>
         <v>0.21995785733468301</v>
       </c>
-      <c r="O16" s="10">
+      <c r="P17" s="6">
         <v>1042662</v>
       </c>
-      <c r="P16" s="18">
-        <f t="shared" ref="P16" si="10">(O16-O4)/O4</f>
+      <c r="Q17" s="14">
+        <f t="shared" ref="Q17" si="10">(P17-P5)/P5</f>
         <v>7.4627880946638719E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
         <v>42094</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="10">
+      <c r="C18" s="10"/>
+      <c r="D18" s="6">
         <v>217862</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>0.16105755138802288</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F18" s="8">
         <v>1136532</v>
       </c>
-      <c r="F17" s="18">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>7.1569189458281168E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H18" s="6">
         <v>3583</v>
       </c>
-      <c r="H17" s="17">
-        <f t="shared" ref="H17" si="11">(G17-G5)/G5</f>
+      <c r="I18" s="13">
+        <f t="shared" ref="I18" si="11">(H18-H6)/H6</f>
         <v>0.74440116845180138</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J18" s="8">
         <v>20650</v>
       </c>
-      <c r="J17" s="18">
-        <f t="shared" ref="J17" si="12">(I17-I5)/I5</f>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18" si="12">(J18-J6)/J6</f>
         <v>0.53520184372909074</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L18" s="6">
         <v>39333</v>
       </c>
-      <c r="L17" s="17">
-        <f t="shared" ref="L17" si="13">(K17-K5)/K5</f>
+      <c r="M18" s="13">
+        <f t="shared" ref="M18" si="13">(L18-L6)/L6</f>
         <v>0.13155926352128883</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N18" s="8">
         <v>157514</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" ref="N17" si="14">(M17-M5)/M5</f>
+      <c r="O18" s="14">
+        <f t="shared" ref="O18" si="14">(N18-N6)/N6</f>
         <v>0.19590618854917205</v>
       </c>
-      <c r="O17" s="10">
+      <c r="P18" s="6">
         <v>1314696</v>
       </c>
-      <c r="P17" s="18">
-        <f t="shared" ref="P17" si="15">(O17-O5)/O5</f>
+      <c r="Q18" s="14">
+        <f t="shared" ref="Q18" si="15">(P18-P6)/P6</f>
         <v>9.0322826770256076E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
         <v>42124</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="10">
+      <c r="C19" s="10"/>
+      <c r="D19" s="6">
         <v>178029</v>
       </c>
-      <c r="D18" s="17">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>6.2301596773038641E-2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="F19" s="8">
         <v>1314561</v>
       </c>
-      <c r="F18" s="18">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>5.6256613852269141E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H19" s="6">
         <v>55470</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" ref="H18" si="16">(G18-G6)/G6</f>
+      <c r="I19" s="13">
+        <f t="shared" ref="I19" si="16">(H19-H7)/H7</f>
         <v>0.39973251911478969</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J19" s="8">
         <v>76120</v>
       </c>
-      <c r="J18" s="18">
-        <f t="shared" ref="J18" si="17">(I18-I6)/I6</f>
+      <c r="K19" s="14">
+        <f t="shared" ref="K19" si="17">(J19-J7)/J7</f>
         <v>0.42961780448868436</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L19" s="6">
         <v>44869</v>
       </c>
-      <c r="L18" s="17">
-        <f t="shared" ref="L18" si="18">(K18-K6)/K6</f>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19" si="18">(L19-L7)/L7</f>
         <v>4.9911081991763383E-2</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N19" s="8">
         <v>202383</v>
       </c>
-      <c r="N18" s="18">
-        <f t="shared" ref="N18" si="19">(M18-M6)/M6</f>
+      <c r="O19" s="14">
+        <f t="shared" ref="O19" si="19">(N19-N7)/N7</f>
         <v>0.15966169872621319</v>
       </c>
-      <c r="O18" s="10">
+      <c r="P19" s="6">
         <v>1593064</v>
       </c>
-      <c r="P18" s="18">
-        <f t="shared" ref="P18" si="20">(O18-O6)/O6</f>
+      <c r="Q19" s="14">
+        <f t="shared" ref="Q19" si="20">(P19-P7)/P7</f>
         <v>8.2015959943245689E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
         <v>42153</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="10">
+      <c r="C20" s="10"/>
+      <c r="D20" s="6">
         <v>169122</v>
       </c>
-      <c r="D19" s="17">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>9.0835209205425732E-2</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F20" s="8">
         <v>1483683</v>
       </c>
-      <c r="F19" s="18">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>6.0086296886152843E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H20" s="6">
         <v>1775</v>
       </c>
-      <c r="H19" s="17">
-        <f t="shared" ref="H19" si="21">(G19-G7)/G7</f>
+      <c r="I20" s="13">
+        <f t="shared" ref="I20" si="21">(H20-H8)/H8</f>
         <v>0.3457164518574678</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J20" s="8">
         <v>77895</v>
       </c>
-      <c r="J19" s="18">
-        <f t="shared" ref="J19" si="22">(I19-I7)/I7</f>
+      <c r="K20" s="14">
+        <f t="shared" ref="K20" si="22">(J20-J8)/J8</f>
         <v>0.42758961952936003</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L20" s="6">
         <v>9360</v>
       </c>
-      <c r="L19" s="17">
-        <f t="shared" ref="L19" si="23">(K19-K7)/K7</f>
+      <c r="M20" s="13">
+        <f t="shared" ref="M20" si="23">(L20-L8)/L8</f>
         <v>0.12934362934362933</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N20" s="8">
         <v>211744</v>
       </c>
-      <c r="N19" s="18">
-        <f t="shared" ref="N19" si="24">(M19-M7)/M7</f>
+      <c r="O20" s="14">
+        <f t="shared" ref="O20" si="24">(N20-N8)/N8</f>
         <v>0.15829262555591417</v>
       </c>
-      <c r="O19" s="10">
+      <c r="P20" s="6">
         <v>1773322</v>
       </c>
-      <c r="P19" s="18">
-        <f t="shared" ref="P19" si="25">(O19-O7)/O7</f>
+      <c r="Q20" s="14">
+        <f t="shared" ref="Q20" si="25">(P20-P8)/P8</f>
         <v>8.330329794655697E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
         <v>42185</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="10">
+      <c r="C21" s="10"/>
+      <c r="D21" s="6">
         <v>180040</v>
       </c>
-      <c r="D20" s="17">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>5.4987811738233638E-2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="F21" s="8">
         <v>1663724</v>
       </c>
-      <c r="F20" s="18">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>5.4691397704271005E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H21" s="6">
         <v>10296</v>
       </c>
-      <c r="H20" s="17">
-        <f t="shared" ref="H20" si="26">(G20-G8)/G8</f>
+      <c r="I21" s="13">
+        <f t="shared" ref="I21" si="26">(H21-H9)/H9</f>
         <v>0.4511627906976744</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J21" s="8">
         <v>88191</v>
       </c>
-      <c r="J20" s="18">
-        <f t="shared" ref="J20" si="27">(I20-I8)/I8</f>
+      <c r="K21" s="14">
+        <f t="shared" ref="K21" si="27">(J21-J9)/J9</f>
         <v>0.42905060522094213</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L21" s="6">
         <v>74922</v>
       </c>
-      <c r="L20" s="17">
-        <f t="shared" ref="L20" si="28">(K20-K8)/K8</f>
+      <c r="M21" s="13">
+        <f t="shared" ref="M21" si="28">(L21-L9)/L9</f>
         <v>5.8938263229308008E-2</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N21" s="8">
         <v>286666</v>
       </c>
-      <c r="N20" s="18">
-        <f t="shared" ref="N20" si="29">(M20-M8)/M8</f>
+      <c r="O21" s="14">
+        <f t="shared" ref="O21" si="29">(N21-N9)/N9</f>
         <v>0.1273679698284168</v>
       </c>
-      <c r="O20" s="10">
+      <c r="P21" s="6">
         <v>2038581</v>
       </c>
-      <c r="P20" s="18">
-        <f t="shared" ref="P20" si="30">(O20-O8)/O8</f>
+      <c r="Q21" s="14">
+        <f t="shared" ref="Q21" si="30">(P21-P9)/P9</f>
         <v>7.6652954432745002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
         <v>42216</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10">
+      <c r="C22" s="10"/>
+      <c r="D22" s="6">
         <v>179334</v>
       </c>
-      <c r="D21" s="17">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>0.28917100382436667</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F22" s="8">
         <v>1843058</v>
       </c>
-      <c r="F21" s="18">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>7.3693359797129029E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H22" s="6">
         <v>1755</v>
       </c>
-      <c r="H21" s="17">
-        <f t="shared" ref="H21" si="31">(G21-G9)/G9</f>
+      <c r="I22" s="13">
+        <f t="shared" ref="I22" si="31">(H22-H10)/H10</f>
         <v>0.6875</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J22" s="8">
         <v>89946</v>
       </c>
-      <c r="J21" s="18">
-        <f t="shared" ref="J21" si="32">(I21-I9)/I9</f>
+      <c r="K22" s="14">
+        <f t="shared" ref="K22" si="32">(J22-J10)/J10</f>
         <v>0.43331102399847021</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L22" s="6">
         <v>11779</v>
       </c>
-      <c r="L21" s="17">
-        <f t="shared" ref="L21" si="33">(K21-K9)/K9</f>
+      <c r="M22" s="13">
+        <f t="shared" ref="M22" si="33">(L22-L10)/L10</f>
         <v>0.13598225479795545</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N22" s="8">
         <v>298445</v>
       </c>
-      <c r="N21" s="18">
-        <f t="shared" ref="N21" si="34">(M21-M9)/M9</f>
+      <c r="O22" s="14">
+        <f t="shared" ref="O22" si="34">(N22-N10)/N10</f>
         <v>0.12770548048728877</v>
       </c>
-      <c r="O21" s="10">
+      <c r="P22" s="6">
         <v>2231449</v>
       </c>
-      <c r="P21" s="18">
-        <f t="shared" ref="P21" si="35">(O21-O9)/O9</f>
+      <c r="Q22" s="14">
+        <f t="shared" ref="Q22" si="35">(P22-P10)/P10</f>
         <v>9.172777758479736E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
         <v>42247</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10">
+      <c r="C23" s="10"/>
+      <c r="D23" s="6">
         <v>176196</v>
       </c>
-      <c r="D22" s="17">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>9.5221815424206074E-2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="F23" s="8">
         <v>2019254</v>
       </c>
-      <c r="F22" s="18">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>6.0961628389632365E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H23" s="6">
         <v>1568</v>
       </c>
-      <c r="H22" s="17">
-        <f t="shared" ref="H22" si="36">(G22-G10)/G10</f>
+      <c r="I23" s="13">
+        <f t="shared" ref="I23" si="36">(H23-H11)/H11</f>
         <v>0.41261261261261262</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J23" s="8">
         <v>91514</v>
       </c>
-      <c r="J22" s="18">
-        <f t="shared" ref="J22" si="37">(I22-I10)/I10</f>
+      <c r="K23" s="14">
+        <f t="shared" ref="K23" si="37">(J23-J11)/J11</f>
         <v>0.42809881244050496</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L23" s="6">
         <v>4608</v>
       </c>
-      <c r="L22" s="17">
-        <f t="shared" ref="L22" si="38">(K22-K10)/K10</f>
+      <c r="M23" s="13">
+        <f t="shared" ref="M23" si="38">(L23-L11)/L11</f>
         <v>-0.11690302798006899</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N23" s="8">
         <v>303053</v>
       </c>
-      <c r="N22" s="18">
-        <f t="shared" ref="N22" si="39">(M22-M10)/M10</f>
+      <c r="O23" s="14">
+        <f t="shared" ref="O23" si="39">(N23-N11)/N11</f>
         <v>0.12202788658763246</v>
       </c>
-      <c r="O22" s="10">
+      <c r="P23" s="6">
         <v>2413821</v>
       </c>
-      <c r="P22" s="18">
-        <f t="shared" ref="P22" si="40">(O22-O10)/O10</f>
+      <c r="Q23" s="14">
+        <f t="shared" ref="Q23" si="40">(P23-P11)/P11</f>
         <v>7.8848487421812316E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29">
+    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23">
         <v>42277</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25">
         <v>171075</v>
       </c>
-      <c r="D23" s="32">
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>2.73139166163567E-3</v>
       </c>
-      <c r="E23" s="33">
+      <c r="F24" s="27">
         <v>2190329</v>
       </c>
-      <c r="F23" s="34">
+      <c r="G24" s="28">
         <f t="shared" si="0"/>
         <v>5.6171187830877906E-2</v>
       </c>
-      <c r="G23" s="31">
+      <c r="H24" s="25">
         <v>11296</v>
       </c>
-      <c r="H23" s="32">
-        <f t="shared" ref="H23" si="41">(G23-G11)/G11</f>
+      <c r="I24" s="26">
+        <f t="shared" ref="I24" si="41">(H24-H12)/H12</f>
         <v>0.34524234845778257</v>
       </c>
-      <c r="I23" s="33">
+      <c r="J24" s="27">
         <v>102810</v>
       </c>
-      <c r="J23" s="34">
-        <f t="shared" ref="J23" si="42">(I23-I11)/I11</f>
+      <c r="K24" s="28">
+        <f t="shared" ref="K24" si="42">(J24-J12)/J12</f>
         <v>0.41849940671652086</v>
       </c>
-      <c r="K23" s="31">
+      <c r="L24" s="25">
         <v>77678</v>
       </c>
-      <c r="L23" s="32">
-        <f t="shared" ref="L23" si="43">(K23-K11)/K11</f>
+      <c r="M24" s="26">
+        <f t="shared" ref="M24" si="43">(L24-L12)/L12</f>
         <v>3.2430420798001007E-2</v>
       </c>
-      <c r="M23" s="33">
+      <c r="N24" s="27">
         <v>380731</v>
       </c>
-      <c r="N23" s="34">
-        <f t="shared" ref="N23" si="44">(M23-M11)/M11</f>
+      <c r="O24" s="28">
+        <f t="shared" ref="O24" si="44">(N24-N12)/N12</f>
         <v>0.10250715253726848</v>
       </c>
-      <c r="O23" s="31">
+      <c r="P24" s="25">
         <v>2673870</v>
       </c>
-      <c r="P23" s="34">
-        <f t="shared" ref="P23" si="45">(O23-O11)/O11</f>
+      <c r="Q24" s="28">
+        <f t="shared" ref="Q24" si="45">(P24-P12)/P12</f>
         <v>7.3132692445846109E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+    <row r="25" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17">
         <v>42307</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19">
         <v>169015</v>
       </c>
-      <c r="D24" s="26">
+      <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>2.657696939495868E-3</v>
       </c>
-      <c r="E24" s="27">
+      <c r="F25" s="21">
         <v>169015</v>
       </c>
-      <c r="F24" s="28">
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
         <v>2.657696939495868E-3</v>
       </c>
-      <c r="G24" s="25">
+      <c r="H25" s="19">
         <v>4136</v>
       </c>
-      <c r="H24" s="26">
-        <f t="shared" ref="H24" si="46">(G24-G12)/G12</f>
+      <c r="I25" s="20">
+        <f t="shared" ref="I25" si="46">(H25-H13)/H13</f>
         <v>0.32098371127435327</v>
       </c>
-      <c r="I24" s="27">
+      <c r="J25" s="21">
         <v>4136</v>
       </c>
-      <c r="J24" s="28">
-        <f t="shared" ref="J24" si="47">(I24-I12)/I12</f>
+      <c r="K25" s="22">
+        <f t="shared" ref="K25" si="47">(J25-J13)/J13</f>
         <v>0.32098371127435327</v>
       </c>
-      <c r="K24" s="25">
+      <c r="L25" s="19">
         <v>9990</v>
       </c>
-      <c r="L24" s="26">
-        <f t="shared" ref="L24" si="48">(K24-K12)/K12</f>
+      <c r="M25" s="20">
+        <f t="shared" ref="M25" si="48">(L25-L13)/L13</f>
         <v>-0.12067599683126486</v>
       </c>
-      <c r="M24" s="27">
+      <c r="N25" s="21">
         <v>9990</v>
       </c>
-      <c r="N24" s="28">
-        <f t="shared" ref="N24" si="49">(M24-M12)/M12</f>
+      <c r="O25" s="22">
+        <f t="shared" ref="O25" si="49">(N25-N13)/N13</f>
         <v>-0.12067599683126486</v>
       </c>
-      <c r="O24" s="25">
+      <c r="P25" s="19">
         <v>183141</v>
       </c>
-      <c r="P24" s="28">
-        <f t="shared" ref="P24" si="50">(O24-O12)/O12</f>
+      <c r="Q25" s="22">
+        <f t="shared" ref="Q25" si="50">(P25-P13)/P13</f>
         <v>4.4794301290840657E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
         <v>42338</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="10">
+      <c r="C26" s="10"/>
+      <c r="D26" s="6">
         <v>176960</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>8.2105752355793635E-2</v>
       </c>
-      <c r="E25" s="12">
+      <c r="F26" s="8">
         <v>345975</v>
       </c>
-      <c r="F25" s="18">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>4.1779584462511295E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H26" s="6">
         <v>1531</v>
       </c>
-      <c r="H25" s="17">
-        <f t="shared" ref="H25" si="51">(G25-G13)/G13</f>
+      <c r="I26" s="13">
+        <f t="shared" ref="I26" si="51">(H26-H14)/H14</f>
         <v>0.33828671328671328</v>
       </c>
-      <c r="I25" s="12">
+      <c r="J26" s="8">
         <v>5667</v>
       </c>
-      <c r="J25" s="18">
-        <f t="shared" ref="J25" si="52">(I25-I13)/I13</f>
+      <c r="K26" s="14">
+        <f t="shared" ref="K26" si="52">(J26-J14)/J14</f>
         <v>0.3256140350877193</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L26" s="6">
         <v>6112</v>
       </c>
-      <c r="L25" s="17">
-        <f t="shared" ref="L25" si="53">(K25-K13)/K13</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26" si="53">(L26-L14)/L14</f>
         <v>0.13584835532428916</v>
       </c>
-      <c r="M25" s="12">
+      <c r="N26" s="8">
         <v>16102</v>
       </c>
-      <c r="N25" s="18">
-        <f t="shared" ref="N25" si="54">(M25-M13)/M13</f>
+      <c r="O26" s="14">
+        <f t="shared" ref="O26" si="54">(N26-N14)/N14</f>
         <v>-3.8227212997252416E-2</v>
       </c>
-      <c r="O25" s="10">
+      <c r="P26" s="6">
         <v>367744</v>
       </c>
-      <c r="P25" s="18">
-        <f t="shared" ref="P25" si="55">(O25-O13)/O13</f>
+      <c r="Q26" s="14">
+        <f t="shared" ref="Q26" si="55">(P26-P14)/P14</f>
         <v>4.1422531342302976E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <v>42369</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="10">
+      <c r="C27" s="10"/>
+      <c r="D27" s="6">
         <v>216341</v>
       </c>
-      <c r="D26" s="17">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>2.8823473463952826E-2</v>
       </c>
-      <c r="E26" s="12">
+      <c r="F27" s="8">
         <v>562315</v>
       </c>
-      <c r="F26" s="18">
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>3.6754673844905786E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H27" s="6">
         <v>3297</v>
       </c>
-      <c r="H26" s="17">
-        <f t="shared" ref="H26" si="56">(G26-G14)/G14</f>
+      <c r="I27" s="13">
+        <f t="shared" ref="I27" si="56">(H27-H15)/H15</f>
         <v>0.46598488216985329</v>
       </c>
-      <c r="I26" s="12">
+      <c r="J27" s="8">
         <v>8964</v>
       </c>
-      <c r="J26" s="18">
-        <f t="shared" ref="J26" si="57">(I26-I14)/I14</f>
+      <c r="K27" s="14">
+        <f t="shared" ref="K27" si="57">(J27-J15)/J15</f>
         <v>0.37400367872470874</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L27" s="6">
         <v>78560</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" ref="L26" si="58">(K26-K14)/K14</f>
+      <c r="M27" s="13">
+        <f t="shared" ref="M27" si="58">(L27-L15)/L15</f>
         <v>-9.3907868330603675E-2</v>
       </c>
-      <c r="M26" s="12">
+      <c r="N27" s="8">
         <v>94662</v>
       </c>
-      <c r="N26" s="18">
-        <f t="shared" ref="N26" si="59">(M26-M14)/M14</f>
+      <c r="O27" s="14">
+        <f t="shared" ref="O27" si="59">(N27-N15)/N15</f>
         <v>-8.489617570859595E-2</v>
       </c>
-      <c r="O26" s="10">
+      <c r="P27" s="6">
         <v>665941</v>
       </c>
-      <c r="P26" s="18">
-        <f t="shared" ref="P26" si="60">(O26-O14)/O14</f>
+      <c r="Q27" s="14">
+        <f t="shared" ref="Q27" si="60">(P27-P15)/P15</f>
         <v>2.0837037900016557E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
         <v>42398</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="10">
+      <c r="C28" s="10"/>
+      <c r="D28" s="6">
         <v>191115</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>8.3308711801451975E-3</v>
       </c>
-      <c r="E27" s="12">
+      <c r="F28" s="8">
         <v>753432</v>
       </c>
-      <c r="F27" s="18">
+      <c r="G28" s="14">
         <f t="shared" si="0"/>
         <v>2.939400315335871E-2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H28" s="6">
         <v>12472</v>
       </c>
-      <c r="H27" s="17">
-        <f t="shared" ref="H27" si="61">(G27-G15)/G15</f>
+      <c r="I28" s="13">
+        <f t="shared" ref="I28" si="61">(H28-H16)/H16</f>
         <v>0.37812154696132599</v>
       </c>
-      <c r="I27" s="12">
+      <c r="J28" s="8">
         <v>21437</v>
       </c>
-      <c r="J27" s="18">
-        <f t="shared" ref="J27" si="62">(I27-I15)/I15</f>
+      <c r="K28" s="14">
+        <f t="shared" ref="K28" si="62">(J28-J16)/J16</f>
         <v>0.37646076794657762</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L28" s="6">
         <v>8813</v>
       </c>
-      <c r="L27" s="17">
-        <f t="shared" ref="L27" si="63">(K27-K15)/K15</f>
+      <c r="M28" s="13">
+        <f t="shared" ref="M28" si="63">(L28-L16)/L16</f>
         <v>-0.14228710462287106</v>
       </c>
-      <c r="M27" s="12">
+      <c r="N28" s="8">
         <v>103476</v>
       </c>
-      <c r="N27" s="18">
-        <f t="shared" ref="N27" si="64">(M27-M15)/M15</f>
+      <c r="O28" s="14">
+        <f t="shared" ref="O28" si="64">(N28-N16)/N16</f>
         <v>-9.0072898987856032E-2</v>
       </c>
-      <c r="O27" s="10">
+      <c r="P28" s="6">
         <v>878345</v>
       </c>
-      <c r="P27" s="18">
-        <f t="shared" ref="P27" si="65">(O27-O15)/O15</f>
+      <c r="Q28" s="14">
+        <f t="shared" ref="Q28" si="65">(P28-P16)/P16</f>
         <v>1.9895240539194229E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
         <v>42426</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="10">
+      <c r="C29" s="10"/>
+      <c r="D29" s="6">
         <v>185990</v>
       </c>
-      <c r="D28" s="17">
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>5.8770621520385279E-2</v>
       </c>
-      <c r="E28" s="12">
+      <c r="F29" s="8">
         <v>939422</v>
       </c>
-      <c r="F28" s="18">
+      <c r="G29" s="14">
         <f t="shared" si="0"/>
         <v>3.5079948522671177E-2</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H29" s="6">
         <v>1904</v>
       </c>
-      <c r="H28" s="17">
-        <f t="shared" ref="H28" si="66">(G28-G16)/G16</f>
+      <c r="I29" s="13">
+        <f t="shared" ref="I29" si="66">(H29-H17)/H17</f>
         <v>0.36487455197132618</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J29" s="8">
         <v>23340</v>
       </c>
-      <c r="J28" s="18">
-        <f t="shared" ref="J28" si="67">(I28-I16)/I16</f>
+      <c r="K29" s="14">
+        <f t="shared" ref="K29" si="67">(J29-J17)/J17</f>
         <v>0.3754493488125405</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L29" s="6">
         <v>4450</v>
       </c>
-      <c r="L28" s="17">
-        <f t="shared" ref="L28" si="68">(K28-K16)/K16</f>
+      <c r="M29" s="13">
+        <f t="shared" ref="M29" si="68">(L29-L17)/L17</f>
         <v>1.366742596810934E-2</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N29" s="8">
         <v>107926</v>
       </c>
-      <c r="N28" s="18">
-        <f t="shared" ref="N28" si="69">(M28-M16)/M16</f>
+      <c r="O29" s="14">
+        <f t="shared" ref="O29" si="69">(N29-N17)/N17</f>
         <v>-8.6216969070942936E-2</v>
       </c>
-      <c r="O28" s="10">
+      <c r="P29" s="6">
         <v>1070688</v>
       </c>
-      <c r="P28" s="18">
-        <f t="shared" ref="P28" si="70">(O28-O16)/O16</f>
+      <c r="Q29" s="14">
+        <f t="shared" ref="Q29" si="70">(P29-P17)/P17</f>
         <v>2.6879276313896545E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
         <v>42460</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10">
+      <c r="C30" s="10"/>
+      <c r="D30" s="6">
         <v>216675</v>
       </c>
-      <c r="D29" s="17">
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>-5.4484031175698376E-3</v>
       </c>
-      <c r="E29" s="12">
+      <c r="F30" s="8">
         <v>1177450</v>
       </c>
-      <c r="F29" s="18">
+      <c r="G30" s="14">
         <f t="shared" si="0"/>
         <v>3.6002505868730487E-2</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H30" s="6">
         <v>4300</v>
       </c>
-      <c r="H29" s="17">
-        <f t="shared" ref="H29" si="71">(G29-G17)/G17</f>
+      <c r="I30" s="13">
+        <f t="shared" ref="I30" si="71">(H30-H18)/H18</f>
         <v>0.20011163829193412</v>
       </c>
-      <c r="I29" s="12">
+      <c r="J30" s="8">
         <v>27857</v>
       </c>
-      <c r="J29" s="18">
-        <f t="shared" ref="J29" si="72">(I29-I17)/I17</f>
+      <c r="K30" s="14">
+        <f t="shared" ref="K30" si="72">(J30-J18)/J18</f>
         <v>0.34900726392251818</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L30" s="6">
         <v>38326</v>
       </c>
-      <c r="L29" s="17">
-        <f t="shared" ref="L29" si="73">(K29-K17)/K17</f>
+      <c r="M30" s="13">
+        <f t="shared" ref="M30" si="73">(L30-L18)/L18</f>
         <v>-2.5601911880609157E-2</v>
       </c>
-      <c r="M29" s="12">
+      <c r="N30" s="8">
         <v>146788</v>
       </c>
-      <c r="N29" s="18">
-        <f t="shared" ref="N29" si="74">(M29-M17)/M17</f>
+      <c r="O30" s="14">
+        <f t="shared" ref="O30" si="74">(N30-N18)/N18</f>
         <v>-6.8095534365199287E-2</v>
       </c>
-      <c r="O29" s="10">
+      <c r="P30" s="6">
         <v>1352095</v>
       </c>
-      <c r="P29" s="18">
-        <f t="shared" ref="P29" si="75">(O29-O17)/O17</f>
+      <c r="Q30" s="14">
+        <f t="shared" ref="Q30" si="75">(P30-P18)/P18</f>
         <v>2.8446880495567036E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
         <v>42489</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="10">
+      <c r="C31" s="10"/>
+      <c r="D31" s="6">
         <v>182351</v>
       </c>
-      <c r="D30" s="17">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>2.4276943644013053E-2</v>
       </c>
-      <c r="E30" s="12">
+      <c r="F31" s="8">
         <v>1359801</v>
       </c>
-      <c r="F30" s="18">
+      <c r="G31" s="14">
         <f t="shared" si="0"/>
         <v>3.4414530782519791E-2</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H31" s="6">
         <v>60741</v>
       </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30" si="76">(G30-G18)/G18</f>
+      <c r="I31" s="13">
+        <f t="shared" ref="I31" si="76">(H31-H19)/H19</f>
         <v>9.5024337479718765E-2</v>
       </c>
-      <c r="I30" s="12">
+      <c r="J31" s="8">
         <v>88598</v>
       </c>
-      <c r="J30" s="18">
-        <f t="shared" ref="J30" si="77">(I30-I18)/I18</f>
+      <c r="K31" s="14">
+        <f t="shared" ref="K31" si="77">(J31-J19)/J19</f>
         <v>0.16392538097740411</v>
       </c>
-      <c r="K30" s="10">
+      <c r="L31" s="6">
         <v>39572</v>
       </c>
-      <c r="L30" s="17">
-        <f t="shared" ref="L30" si="78">(K30-K18)/K18</f>
+      <c r="M31" s="13">
+        <f t="shared" ref="M31" si="78">(L31-L19)/L19</f>
         <v>-0.11805478169783147</v>
       </c>
-      <c r="M30" s="12">
+      <c r="N31" s="8">
         <v>186360</v>
       </c>
-      <c r="N30" s="18">
-        <f t="shared" ref="N30" si="79">(M30-M18)/M18</f>
+      <c r="O31" s="14">
+        <f t="shared" ref="O31" si="79">(N31-N19)/N19</f>
         <v>-7.9171669557225655E-2</v>
       </c>
-      <c r="O30" s="10">
+      <c r="P31" s="6">
         <v>1634759</v>
       </c>
-      <c r="P30" s="18">
-        <f t="shared" ref="P30" si="80">(O30-O18)/O18</f>
+      <c r="Q31" s="14">
+        <f t="shared" ref="Q31" si="80">(P31-P19)/P19</f>
         <v>2.6172834236414859E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="32" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
         <v>42521</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="19">
+      <c r="C32" s="10"/>
+      <c r="D32" s="35">
         <v>185922</v>
       </c>
-      <c r="D31" s="20">
-        <f>(C31-C19)/C19</f>
+      <c r="E32" s="36">
+        <f>(D32-D20)/D20</f>
         <v>9.9336573597757827E-2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="F32" s="37">
         <v>1545723</v>
       </c>
-      <c r="F31" s="22">
-        <f>(E31-E19)/E19</f>
+      <c r="G32" s="38">
+        <f>(F32-F20)/F20</f>
         <v>4.1814862069593034E-2</v>
       </c>
-      <c r="G31" s="19">
+      <c r="H32" s="35">
         <v>2500</v>
       </c>
-      <c r="H31" s="20">
-        <f>(G31-G19)/G19</f>
+      <c r="I32" s="36">
+        <f>(H32-H20)/H20</f>
         <v>0.40845070422535212</v>
       </c>
-      <c r="I31" s="21">
+      <c r="J32" s="37">
         <v>91098</v>
       </c>
-      <c r="J31" s="22">
-        <f>(I31-I19)/I19</f>
+      <c r="K32" s="38">
+        <f>(J32-J20)/J20</f>
         <v>0.16949740034662045</v>
       </c>
-      <c r="K31" s="19">
+      <c r="L32" s="35">
         <v>6978</v>
       </c>
-      <c r="L31" s="20">
-        <f>(K31-K19)/K19</f>
+      <c r="M32" s="36">
+        <f>(L32-L20)/L20</f>
         <v>-0.25448717948717947</v>
       </c>
-      <c r="M31" s="21">
+      <c r="N32" s="37">
         <v>193337</v>
       </c>
-      <c r="N31" s="22">
-        <f>(M31-M19)/M19</f>
+      <c r="O32" s="38">
+        <f>(N32-N20)/N20</f>
         <v>-8.6930444310110322E-2</v>
       </c>
-      <c r="O31" s="19">
+      <c r="P32" s="15">
         <v>1830158</v>
       </c>
-      <c r="P31" s="22">
-        <f>(O31-O19)/O19</f>
+      <c r="Q32" s="16">
+        <f>(P32-P20)/P20</f>
         <v>3.205058077438841E-2</v>
       </c>
     </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D33" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="7">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="L33:O34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/dts.xlsx
+++ b/excel/dts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\svn\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -515,19 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -703,10 +690,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -714,51 +703,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -850,6 +813,175 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -897,66 +1029,147 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1313,61 +1526,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="32" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="32" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="2:17" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1409,1375 +1619,1430 @@
       <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="10">
         <v>41670</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="15">
         <v>184981</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
         <v>695883</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6">
+      <c r="G4" s="18"/>
+      <c r="H4" s="15">
         <v>6304</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17">
         <v>10315</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="6">
+      <c r="K4" s="18"/>
+      <c r="L4" s="15">
         <v>10467</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17">
         <v>88461</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="6">
+      <c r="O4" s="18"/>
+      <c r="P4" s="15">
         <v>794659</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="11">
         <v>41697</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="15">
         <v>166360</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
         <v>862243</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6">
+      <c r="G5" s="18"/>
+      <c r="H5" s="15">
         <v>882</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8">
+      <c r="I5" s="16"/>
+      <c r="J5" s="17">
         <v>11197</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="6">
+      <c r="K5" s="18"/>
+      <c r="L5" s="15">
         <v>8352</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8">
+      <c r="M5" s="16"/>
+      <c r="N5" s="17">
         <v>96814</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="6">
+      <c r="O5" s="18"/>
+      <c r="P5" s="15">
         <v>970254</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="11">
         <v>41726</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="15">
         <v>187641</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <v>1060624</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6">
+      <c r="G6" s="18"/>
+      <c r="H6" s="15">
         <v>2054</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17">
         <v>13451</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="6">
+      <c r="K6" s="18"/>
+      <c r="L6" s="15">
         <v>34760</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17">
         <v>131711</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="6">
+      <c r="O6" s="18"/>
+      <c r="P6" s="15">
         <v>1205786</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>41759</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <v>167588</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
         <v>1244547</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6">
+      <c r="G7" s="18"/>
+      <c r="H7" s="15">
         <v>39629</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17">
         <v>53245</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="6">
+      <c r="K7" s="18"/>
+      <c r="L7" s="15">
         <v>42736</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8">
+      <c r="M7" s="16"/>
+      <c r="N7" s="17">
         <v>174519</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="6">
+      <c r="O7" s="18"/>
+      <c r="P7" s="15">
         <v>1472311</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <v>41788</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="15">
         <v>155039</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
         <v>1399587</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6">
+      <c r="G8" s="18"/>
+      <c r="H8" s="15">
         <v>1319</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8">
+      <c r="I8" s="16"/>
+      <c r="J8" s="17">
         <v>54564</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="6">
+      <c r="K8" s="18"/>
+      <c r="L8" s="15">
         <v>8288</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8">
+      <c r="M8" s="16"/>
+      <c r="N8" s="17">
         <v>182807</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="6">
+      <c r="O8" s="18"/>
+      <c r="P8" s="15">
         <v>1636958</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>41820</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="15">
         <v>170656</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17">
         <v>1577451</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="G9" s="18"/>
+      <c r="H9" s="15">
         <v>7095</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17">
         <v>61713</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="6">
+      <c r="K9" s="18"/>
+      <c r="L9" s="15">
         <v>70752</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8">
+      <c r="M9" s="16"/>
+      <c r="N9" s="17">
         <v>254279</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="6">
+      <c r="O9" s="18"/>
+      <c r="P9" s="15">
         <v>1893443</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>41845</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="15">
         <v>139108</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17">
         <v>1716559</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6">
+      <c r="G10" s="18"/>
+      <c r="H10" s="15">
         <v>1040</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8">
+      <c r="I10" s="16"/>
+      <c r="J10" s="17">
         <v>62754</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="6">
+      <c r="K10" s="18"/>
+      <c r="L10" s="15">
         <v>10369</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8">
+      <c r="M10" s="16"/>
+      <c r="N10" s="17">
         <v>264648</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="6">
+      <c r="O10" s="18"/>
+      <c r="P10" s="15">
         <v>2043961</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="11">
         <v>41880</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="15">
         <v>160877</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17">
         <v>1903230</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6">
+      <c r="G11" s="18"/>
+      <c r="H11" s="15">
         <v>1110</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8">
+      <c r="I11" s="16"/>
+      <c r="J11" s="17">
         <v>64081</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="6">
+      <c r="K11" s="18"/>
+      <c r="L11" s="15">
         <v>5218</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8">
+      <c r="M11" s="16"/>
+      <c r="N11" s="17">
         <v>270094</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="6">
+      <c r="O11" s="18"/>
+      <c r="P11" s="15">
         <v>2237405</v>
       </c>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
+      <c r="B12" s="12">
         <v>41912</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="19">
         <v>170609</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="27">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21">
         <v>2073839</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="25">
+      <c r="G12" s="22"/>
+      <c r="H12" s="19">
         <v>8397</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="27">
+      <c r="I12" s="20"/>
+      <c r="J12" s="21">
         <v>72478</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="25">
+      <c r="K12" s="22"/>
+      <c r="L12" s="19">
         <v>75238</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="27">
+      <c r="M12" s="20"/>
+      <c r="N12" s="21">
         <v>345332</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="25">
+      <c r="O12" s="22"/>
+      <c r="P12" s="19">
         <v>2491649</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>41943</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="23">
         <v>168567</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="21">
+      <c r="E13" s="16"/>
+      <c r="F13" s="24">
         <v>168567</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="19">
+      <c r="G13" s="18"/>
+      <c r="H13" s="23">
         <v>3131</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="21">
+      <c r="I13" s="16"/>
+      <c r="J13" s="24">
         <v>3131</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="19">
+      <c r="K13" s="18"/>
+      <c r="L13" s="23">
         <v>11361</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="21">
+      <c r="M13" s="16"/>
+      <c r="N13" s="24">
         <v>11361</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="19">
+      <c r="O13" s="18"/>
+      <c r="P13" s="23">
         <v>183059</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="11">
         <v>41971</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="15">
         <v>163533</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17">
         <v>332100</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6">
+      <c r="G14" s="18"/>
+      <c r="H14" s="15">
         <v>1144</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8">
+      <c r="I14" s="16"/>
+      <c r="J14" s="17">
         <v>4275</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="6">
+      <c r="K14" s="18"/>
+      <c r="L14" s="15">
         <v>5381</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17">
         <v>16742</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="6">
+      <c r="O14" s="18"/>
+      <c r="P14" s="15">
         <v>353117</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15" s="11">
         <v>42004</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="15">
         <v>210280</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17">
         <v>542380</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6">
+      <c r="G15" s="18"/>
+      <c r="H15" s="15">
         <v>2249</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8">
+      <c r="I15" s="16"/>
+      <c r="J15" s="17">
         <v>6524</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="6">
+      <c r="K15" s="18"/>
+      <c r="L15" s="15">
         <v>86702</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17">
         <v>103444</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="6">
+      <c r="O15" s="18"/>
+      <c r="P15" s="15">
         <v>652348</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="11">
         <v>42034</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6">
+      <c r="C16" s="7"/>
+      <c r="D16" s="15">
         <v>189536</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="25">
         <f t="shared" ref="E16:G31" si="0">(D16-D4)/D4</f>
         <v>2.4624150588438812E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="17">
         <v>731918</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>5.1783130210107157E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="15">
         <v>9050</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" ref="I16" si="1">(H16-H4)/H4</f>
+      <c r="I16" s="25">
+        <f t="shared" ref="I16:I33" si="1">(H16-H4)/H4</f>
         <v>0.43559644670050762</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="17">
         <v>15574</v>
       </c>
-      <c r="K16" s="12">
-        <f t="shared" ref="K16" si="2">(J16-J4)/J4</f>
+      <c r="K16" s="26">
+        <f t="shared" ref="K16:K33" si="2">(J16-J4)/J4</f>
         <v>0.50984003877847794</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="15">
         <v>10275</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" ref="M16" si="3">(L16-L4)/L4</f>
+      <c r="M16" s="25">
+        <f t="shared" ref="M16:M33" si="3">(L16-L4)/L4</f>
         <v>-1.8343364860991689E-2</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="17">
         <v>113719</v>
       </c>
-      <c r="O16" s="12">
-        <f t="shared" ref="O16" si="4">(N16-N4)/N4</f>
+      <c r="O16" s="26">
+        <f t="shared" ref="O16:O33" si="4">(N16-N4)/N4</f>
         <v>0.28552695538146755</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="15">
         <v>861211</v>
       </c>
-      <c r="Q16" s="12">
-        <f t="shared" ref="Q16" si="5">(P16-P4)/P4</f>
+      <c r="Q16" s="26">
+        <f t="shared" ref="Q16:Q33" si="5">(P16-P4)/P4</f>
         <v>8.3749130130030616E-2</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17" s="11">
         <v>42061</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6">
+      <c r="C17" s="7"/>
+      <c r="D17" s="15">
         <v>175666</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="25">
         <f t="shared" si="0"/>
         <v>5.5938927626833376E-2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="17">
         <v>907584</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>5.2584944151474702E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="15">
         <v>1395</v>
       </c>
-      <c r="I17" s="13">
-        <f t="shared" ref="I17" si="6">(H17-H5)/H5</f>
+      <c r="I17" s="25">
+        <f t="shared" si="1"/>
         <v>0.58163265306122447</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="17">
         <v>16969</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" ref="K17" si="7">(J17-J5)/J5</f>
+      <c r="K17" s="26">
+        <f t="shared" si="2"/>
         <v>0.51549522193444675</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="15">
         <v>4390</v>
       </c>
-      <c r="M17" s="13">
-        <f t="shared" ref="M17" si="8">(L17-L5)/L5</f>
+      <c r="M17" s="25">
+        <f t="shared" si="3"/>
         <v>-0.4743773946360153</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="17">
         <v>118109</v>
       </c>
-      <c r="O17" s="14">
-        <f t="shared" ref="O17" si="9">(N17-N5)/N5</f>
+      <c r="O17" s="26">
+        <f t="shared" si="4"/>
         <v>0.21995785733468301</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="15">
         <v>1042662</v>
       </c>
-      <c r="Q17" s="14">
-        <f t="shared" ref="Q17" si="10">(P17-P5)/P5</f>
+      <c r="Q17" s="26">
+        <f t="shared" si="5"/>
         <v>7.4627880946638719E-2</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18" s="11">
         <v>42094</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6">
+      <c r="C18" s="7"/>
+      <c r="D18" s="15">
         <v>217862</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="25">
         <f t="shared" si="0"/>
         <v>0.16105755138802288</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="17">
         <v>1136532</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
         <v>7.1569189458281168E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="15">
         <v>3583</v>
       </c>
-      <c r="I18" s="13">
-        <f t="shared" ref="I18" si="11">(H18-H6)/H6</f>
+      <c r="I18" s="25">
+        <f t="shared" si="1"/>
         <v>0.74440116845180138</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="17">
         <v>20650</v>
       </c>
-      <c r="K18" s="14">
-        <f t="shared" ref="K18" si="12">(J18-J6)/J6</f>
+      <c r="K18" s="26">
+        <f t="shared" si="2"/>
         <v>0.53520184372909074</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="15">
         <v>39333</v>
       </c>
-      <c r="M18" s="13">
-        <f t="shared" ref="M18" si="13">(L18-L6)/L6</f>
+      <c r="M18" s="25">
+        <f t="shared" si="3"/>
         <v>0.13155926352128883</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="17">
         <v>157514</v>
       </c>
-      <c r="O18" s="14">
-        <f t="shared" ref="O18" si="14">(N18-N6)/N6</f>
+      <c r="O18" s="26">
+        <f t="shared" si="4"/>
         <v>0.19590618854917205</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="15">
         <v>1314696</v>
       </c>
-      <c r="Q18" s="14">
-        <f t="shared" ref="Q18" si="15">(P18-P6)/P6</f>
+      <c r="Q18" s="26">
+        <f t="shared" si="5"/>
         <v>9.0322826770256076E-2</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="11">
         <v>42124</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6">
+      <c r="C19" s="7"/>
+      <c r="D19" s="15">
         <v>178029</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="25">
         <f t="shared" si="0"/>
         <v>6.2301596773038641E-2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="17">
         <v>1314561</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
         <v>5.6256613852269141E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="15">
         <v>55470</v>
       </c>
-      <c r="I19" s="13">
-        <f t="shared" ref="I19" si="16">(H19-H7)/H7</f>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
         <v>0.39973251911478969</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="17">
         <v>76120</v>
       </c>
-      <c r="K19" s="14">
-        <f t="shared" ref="K19" si="17">(J19-J7)/J7</f>
+      <c r="K19" s="26">
+        <f t="shared" si="2"/>
         <v>0.42961780448868436</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="15">
         <v>44869</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" ref="M19" si="18">(L19-L7)/L7</f>
+      <c r="M19" s="25">
+        <f t="shared" si="3"/>
         <v>4.9911081991763383E-2</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="17">
         <v>202383</v>
       </c>
-      <c r="O19" s="14">
-        <f t="shared" ref="O19" si="19">(N19-N7)/N7</f>
+      <c r="O19" s="26">
+        <f t="shared" si="4"/>
         <v>0.15966169872621319</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="15">
         <v>1593064</v>
       </c>
-      <c r="Q19" s="14">
-        <f t="shared" ref="Q19" si="20">(P19-P7)/P7</f>
+      <c r="Q19" s="26">
+        <f t="shared" si="5"/>
         <v>8.2015959943245689E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="11">
         <v>42153</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6">
+      <c r="C20" s="7"/>
+      <c r="D20" s="15">
         <v>169122</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="25">
         <f t="shared" si="0"/>
         <v>9.0835209205425732E-2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="17">
         <v>1483683</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="27">
         <f t="shared" si="0"/>
         <v>6.0086296886152843E-2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="15">
         <v>1775</v>
       </c>
-      <c r="I20" s="13">
-        <f t="shared" ref="I20" si="21">(H20-H8)/H8</f>
+      <c r="I20" s="25">
+        <f t="shared" si="1"/>
         <v>0.3457164518574678</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="17">
         <v>77895</v>
       </c>
-      <c r="K20" s="14">
-        <f t="shared" ref="K20" si="22">(J20-J8)/J8</f>
+      <c r="K20" s="26">
+        <f t="shared" si="2"/>
         <v>0.42758961952936003</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="15">
         <v>9360</v>
       </c>
-      <c r="M20" s="13">
-        <f t="shared" ref="M20" si="23">(L20-L8)/L8</f>
+      <c r="M20" s="25">
+        <f t="shared" si="3"/>
         <v>0.12934362934362933</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="17">
         <v>211744</v>
       </c>
-      <c r="O20" s="14">
-        <f t="shared" ref="O20" si="24">(N20-N8)/N8</f>
+      <c r="O20" s="26">
+        <f t="shared" si="4"/>
         <v>0.15829262555591417</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="15">
         <v>1773322</v>
       </c>
-      <c r="Q20" s="14">
-        <f t="shared" ref="Q20" si="25">(P20-P8)/P8</f>
+      <c r="Q20" s="26">
+        <f t="shared" si="5"/>
         <v>8.330329794655697E-2</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="11">
         <v>42185</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6">
+      <c r="C21" s="7"/>
+      <c r="D21" s="15">
         <v>180040</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="25">
         <f t="shared" si="0"/>
         <v>5.4987811738233638E-2</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="17">
         <v>1663724</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="27">
         <f t="shared" si="0"/>
         <v>5.4691397704271005E-2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="15">
         <v>10296</v>
       </c>
-      <c r="I21" s="13">
-        <f t="shared" ref="I21" si="26">(H21-H9)/H9</f>
+      <c r="I21" s="25">
+        <f t="shared" si="1"/>
         <v>0.4511627906976744</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="17">
         <v>88191</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" ref="K21" si="27">(J21-J9)/J9</f>
+      <c r="K21" s="26">
+        <f t="shared" si="2"/>
         <v>0.42905060522094213</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="15">
         <v>74922</v>
       </c>
-      <c r="M21" s="13">
-        <f t="shared" ref="M21" si="28">(L21-L9)/L9</f>
+      <c r="M21" s="25">
+        <f t="shared" si="3"/>
         <v>5.8938263229308008E-2</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="17">
         <v>286666</v>
       </c>
-      <c r="O21" s="14">
-        <f t="shared" ref="O21" si="29">(N21-N9)/N9</f>
+      <c r="O21" s="26">
+        <f t="shared" si="4"/>
         <v>0.1273679698284168</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="15">
         <v>2038581</v>
       </c>
-      <c r="Q21" s="14">
-        <f t="shared" ref="Q21" si="30">(P21-P9)/P9</f>
+      <c r="Q21" s="26">
+        <f t="shared" si="5"/>
         <v>7.6652954432745002E-2</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="11">
         <v>42216</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6">
+      <c r="C22" s="7"/>
+      <c r="D22" s="15">
         <v>179334</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="25">
         <f t="shared" si="0"/>
         <v>0.28917100382436667</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="17">
         <v>1843058</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
         <v>7.3693359797129029E-2</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="15">
         <v>1755</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" ref="I22" si="31">(H22-H10)/H10</f>
+      <c r="I22" s="25">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="17">
         <v>89946</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" ref="K22" si="32">(J22-J10)/J10</f>
+      <c r="K22" s="26">
+        <f t="shared" si="2"/>
         <v>0.43331102399847021</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="15">
         <v>11779</v>
       </c>
-      <c r="M22" s="13">
-        <f t="shared" ref="M22" si="33">(L22-L10)/L10</f>
+      <c r="M22" s="25">
+        <f t="shared" si="3"/>
         <v>0.13598225479795545</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="17">
         <v>298445</v>
       </c>
-      <c r="O22" s="14">
-        <f t="shared" ref="O22" si="34">(N22-N10)/N10</f>
+      <c r="O22" s="26">
+        <f t="shared" si="4"/>
         <v>0.12770548048728877</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="15">
         <v>2231449</v>
       </c>
-      <c r="Q22" s="14">
-        <f t="shared" ref="Q22" si="35">(P22-P10)/P10</f>
+      <c r="Q22" s="26">
+        <f t="shared" si="5"/>
         <v>9.172777758479736E-2</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="11">
         <v>42247</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6">
+      <c r="C23" s="7"/>
+      <c r="D23" s="15">
         <v>176196</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="25">
         <f t="shared" si="0"/>
         <v>9.5221815424206074E-2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="17">
         <v>2019254</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="27">
         <f t="shared" si="0"/>
         <v>6.0961628389632365E-2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="15">
         <v>1568</v>
       </c>
-      <c r="I23" s="13">
-        <f t="shared" ref="I23" si="36">(H23-H11)/H11</f>
+      <c r="I23" s="25">
+        <f t="shared" si="1"/>
         <v>0.41261261261261262</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="17">
         <v>91514</v>
       </c>
-      <c r="K23" s="14">
-        <f t="shared" ref="K23" si="37">(J23-J11)/J11</f>
+      <c r="K23" s="26">
+        <f t="shared" si="2"/>
         <v>0.42809881244050496</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="15">
         <v>4608</v>
       </c>
-      <c r="M23" s="13">
-        <f t="shared" ref="M23" si="38">(L23-L11)/L11</f>
+      <c r="M23" s="25">
+        <f t="shared" si="3"/>
         <v>-0.11690302798006899</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="17">
         <v>303053</v>
       </c>
-      <c r="O23" s="14">
-        <f t="shared" ref="O23" si="39">(N23-N11)/N11</f>
+      <c r="O23" s="26">
+        <f t="shared" si="4"/>
         <v>0.12202788658763246</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="15">
         <v>2413821</v>
       </c>
-      <c r="Q23" s="14">
-        <f t="shared" ref="Q23" si="40">(P23-P11)/P11</f>
+      <c r="Q23" s="26">
+        <f t="shared" si="5"/>
         <v>7.8848487421812316E-2</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23">
+      <c r="B24" s="12">
         <v>42277</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="19">
         <v>171075</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>2.73139166163567E-3</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="21">
         <v>2190329</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <f t="shared" si="0"/>
         <v>5.6171187830877906E-2</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="19">
         <v>11296</v>
       </c>
-      <c r="I24" s="26">
-        <f t="shared" ref="I24" si="41">(H24-H12)/H12</f>
+      <c r="I24" s="28">
+        <f t="shared" si="1"/>
         <v>0.34524234845778257</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="21">
         <v>102810</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" ref="K24" si="42">(J24-J12)/J12</f>
+      <c r="K24" s="30">
+        <f t="shared" si="2"/>
         <v>0.41849940671652086</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="19">
         <v>77678</v>
       </c>
-      <c r="M24" s="26">
-        <f t="shared" ref="M24" si="43">(L24-L12)/L12</f>
+      <c r="M24" s="28">
+        <f t="shared" si="3"/>
         <v>3.2430420798001007E-2</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="21">
         <v>380731</v>
       </c>
-      <c r="O24" s="28">
-        <f t="shared" ref="O24" si="44">(N24-N12)/N12</f>
+      <c r="O24" s="30">
+        <f t="shared" si="4"/>
         <v>0.10250715253726848</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="19">
         <v>2673870</v>
       </c>
-      <c r="Q24" s="28">
-        <f t="shared" ref="Q24" si="45">(P24-P12)/P12</f>
+      <c r="Q24" s="30">
+        <f t="shared" si="5"/>
         <v>7.3132692445846109E-2</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17">
+      <c r="B25" s="13">
         <v>42307</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19">
+      <c r="C25" s="9"/>
+      <c r="D25" s="23">
         <v>169015</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
         <v>2.657696939495868E-3</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="24">
         <v>169015</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="32">
         <f t="shared" si="0"/>
         <v>2.657696939495868E-3</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="23">
         <v>4136</v>
       </c>
-      <c r="I25" s="20">
-        <f t="shared" ref="I25" si="46">(H25-H13)/H13</f>
+      <c r="I25" s="31">
+        <f t="shared" si="1"/>
         <v>0.32098371127435327</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="24">
         <v>4136</v>
       </c>
-      <c r="K25" s="22">
-        <f t="shared" ref="K25" si="47">(J25-J13)/J13</f>
+      <c r="K25" s="33">
+        <f t="shared" si="2"/>
         <v>0.32098371127435327</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="23">
         <v>9990</v>
       </c>
-      <c r="M25" s="20">
-        <f t="shared" ref="M25" si="48">(L25-L13)/L13</f>
+      <c r="M25" s="31">
+        <f t="shared" si="3"/>
         <v>-0.12067599683126486</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="24">
         <v>9990</v>
       </c>
-      <c r="O25" s="22">
-        <f t="shared" ref="O25" si="49">(N25-N13)/N13</f>
+      <c r="O25" s="33">
+        <f t="shared" si="4"/>
         <v>-0.12067599683126486</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="23">
         <v>183141</v>
       </c>
-      <c r="Q25" s="22">
-        <f t="shared" ref="Q25" si="50">(P25-P13)/P13</f>
+      <c r="Q25" s="33">
+        <f t="shared" si="5"/>
         <v>4.4794301290840657E-4</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+      <c r="B26" s="11">
         <v>42338</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="6">
+      <c r="C26" s="7"/>
+      <c r="D26" s="15">
         <v>176960</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="25">
         <f t="shared" si="0"/>
         <v>8.2105752355793635E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="17">
         <v>345975</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="27">
         <f t="shared" si="0"/>
         <v>4.1779584462511295E-2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="15">
         <v>1531</v>
       </c>
-      <c r="I26" s="13">
-        <f t="shared" ref="I26" si="51">(H26-H14)/H14</f>
+      <c r="I26" s="25">
+        <f t="shared" si="1"/>
         <v>0.33828671328671328</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="17">
         <v>5667</v>
       </c>
-      <c r="K26" s="14">
-        <f t="shared" ref="K26" si="52">(J26-J14)/J14</f>
+      <c r="K26" s="26">
+        <f t="shared" si="2"/>
         <v>0.3256140350877193</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="15">
         <v>6112</v>
       </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26" si="53">(L26-L14)/L14</f>
+      <c r="M26" s="25">
+        <f t="shared" si="3"/>
         <v>0.13584835532428916</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="17">
         <v>16102</v>
       </c>
-      <c r="O26" s="14">
-        <f t="shared" ref="O26" si="54">(N26-N14)/N14</f>
+      <c r="O26" s="26">
+        <f t="shared" si="4"/>
         <v>-3.8227212997252416E-2</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="15">
         <v>367744</v>
       </c>
-      <c r="Q26" s="14">
-        <f t="shared" ref="Q26" si="55">(P26-P14)/P14</f>
+      <c r="Q26" s="26">
+        <f t="shared" si="5"/>
         <v>4.1422531342302976E-2</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
+      <c r="B27" s="11">
         <v>42369</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="6">
+      <c r="C27" s="7"/>
+      <c r="D27" s="15">
         <v>216341</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="25">
         <f t="shared" si="0"/>
         <v>2.8823473463952826E-2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="17">
         <v>562315</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="27">
         <f t="shared" si="0"/>
         <v>3.6754673844905786E-2</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="15">
         <v>3297</v>
       </c>
-      <c r="I27" s="13">
-        <f t="shared" ref="I27" si="56">(H27-H15)/H15</f>
+      <c r="I27" s="25">
+        <f t="shared" si="1"/>
         <v>0.46598488216985329</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="17">
         <v>8964</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" ref="K27" si="57">(J27-J15)/J15</f>
+      <c r="K27" s="26">
+        <f t="shared" si="2"/>
         <v>0.37400367872470874</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="15">
         <v>78560</v>
       </c>
-      <c r="M27" s="13">
-        <f t="shared" ref="M27" si="58">(L27-L15)/L15</f>
+      <c r="M27" s="25">
+        <f t="shared" si="3"/>
         <v>-9.3907868330603675E-2</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="17">
         <v>94662</v>
       </c>
-      <c r="O27" s="14">
-        <f t="shared" ref="O27" si="59">(N27-N15)/N15</f>
+      <c r="O27" s="26">
+        <f t="shared" si="4"/>
         <v>-8.489617570859595E-2</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="15">
         <v>665941</v>
       </c>
-      <c r="Q27" s="14">
-        <f t="shared" ref="Q27" si="60">(P27-P15)/P15</f>
+      <c r="Q27" s="26">
+        <f t="shared" si="5"/>
         <v>2.0837037900016557E-2</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
+      <c r="B28" s="11">
         <v>42398</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6">
+      <c r="C28" s="7"/>
+      <c r="D28" s="15">
         <v>191115</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="25">
         <f t="shared" si="0"/>
         <v>8.3308711801451975E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="17">
         <v>753432</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="27">
         <f t="shared" si="0"/>
         <v>2.939400315335871E-2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="15">
         <v>12472</v>
       </c>
-      <c r="I28" s="13">
-        <f t="shared" ref="I28" si="61">(H28-H16)/H16</f>
+      <c r="I28" s="25">
+        <f t="shared" si="1"/>
         <v>0.37812154696132599</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="17">
         <v>21437</v>
       </c>
-      <c r="K28" s="14">
-        <f t="shared" ref="K28" si="62">(J28-J16)/J16</f>
+      <c r="K28" s="26">
+        <f t="shared" si="2"/>
         <v>0.37646076794657762</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="15">
         <v>8813</v>
       </c>
-      <c r="M28" s="13">
-        <f t="shared" ref="M28" si="63">(L28-L16)/L16</f>
+      <c r="M28" s="25">
+        <f t="shared" si="3"/>
         <v>-0.14228710462287106</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="17">
         <v>103476</v>
       </c>
-      <c r="O28" s="14">
-        <f t="shared" ref="O28" si="64">(N28-N16)/N16</f>
+      <c r="O28" s="26">
+        <f t="shared" si="4"/>
         <v>-9.0072898987856032E-2</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="15">
         <v>878345</v>
       </c>
-      <c r="Q28" s="14">
-        <f t="shared" ref="Q28" si="65">(P28-P16)/P16</f>
+      <c r="Q28" s="26">
+        <f t="shared" si="5"/>
         <v>1.9895240539194229E-2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="B29" s="11">
         <v>42426</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="6">
+      <c r="C29" s="7"/>
+      <c r="D29" s="15">
         <v>185990</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="25">
         <f t="shared" si="0"/>
         <v>5.8770621520385279E-2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="17">
         <v>939422</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="27">
         <f t="shared" si="0"/>
         <v>3.5079948522671177E-2</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="15">
         <v>1904</v>
       </c>
-      <c r="I29" s="13">
-        <f t="shared" ref="I29" si="66">(H29-H17)/H17</f>
+      <c r="I29" s="25">
+        <f t="shared" si="1"/>
         <v>0.36487455197132618</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="17">
         <v>23340</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" ref="K29" si="67">(J29-J17)/J17</f>
+      <c r="K29" s="26">
+        <f t="shared" si="2"/>
         <v>0.3754493488125405</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="15">
         <v>4450</v>
       </c>
-      <c r="M29" s="13">
-        <f t="shared" ref="M29" si="68">(L29-L17)/L17</f>
+      <c r="M29" s="25">
+        <f t="shared" si="3"/>
         <v>1.366742596810934E-2</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="17">
         <v>107926</v>
       </c>
-      <c r="O29" s="14">
-        <f t="shared" ref="O29" si="69">(N29-N17)/N17</f>
+      <c r="O29" s="26">
+        <f t="shared" si="4"/>
         <v>-8.6216969070942936E-2</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="15">
         <v>1070688</v>
       </c>
-      <c r="Q29" s="14">
-        <f t="shared" ref="Q29" si="70">(P29-P17)/P17</f>
+      <c r="Q29" s="26">
+        <f t="shared" si="5"/>
         <v>2.6879276313896545E-2</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
+      <c r="B30" s="11">
         <v>42460</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="6">
+      <c r="C30" s="7"/>
+      <c r="D30" s="15">
         <v>216675</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="25">
         <f t="shared" si="0"/>
         <v>-5.4484031175698376E-3</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="17">
         <v>1177450</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="27">
         <f t="shared" si="0"/>
         <v>3.6002505868730487E-2</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="15">
         <v>4300</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" ref="I30" si="71">(H30-H18)/H18</f>
+      <c r="I30" s="25">
+        <f t="shared" si="1"/>
         <v>0.20011163829193412</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="17">
         <v>27857</v>
       </c>
-      <c r="K30" s="14">
-        <f t="shared" ref="K30" si="72">(J30-J18)/J18</f>
+      <c r="K30" s="26">
+        <f t="shared" si="2"/>
         <v>0.34900726392251818</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="15">
         <v>38326</v>
       </c>
-      <c r="M30" s="13">
-        <f t="shared" ref="M30" si="73">(L30-L18)/L18</f>
+      <c r="M30" s="25">
+        <f t="shared" si="3"/>
         <v>-2.5601911880609157E-2</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="17">
         <v>146788</v>
       </c>
-      <c r="O30" s="14">
-        <f t="shared" ref="O30" si="74">(N30-N18)/N18</f>
+      <c r="O30" s="26">
+        <f t="shared" si="4"/>
         <v>-6.8095534365199287E-2</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="15">
         <v>1352095</v>
       </c>
-      <c r="Q30" s="14">
-        <f t="shared" ref="Q30" si="75">(P30-P18)/P18</f>
+      <c r="Q30" s="26">
+        <f t="shared" si="5"/>
         <v>2.8446880495567036E-2</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
+      <c r="B31" s="11">
         <v>42489</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6">
+      <c r="C31" s="7"/>
+      <c r="D31" s="15">
         <v>182351</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="25">
         <f t="shared" si="0"/>
         <v>2.4276943644013053E-2</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="17">
         <v>1359801</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="27">
         <f t="shared" si="0"/>
         <v>3.4414530782519791E-2</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="15">
         <v>60741</v>
       </c>
-      <c r="I31" s="13">
-        <f t="shared" ref="I31" si="76">(H31-H19)/H19</f>
+      <c r="I31" s="25">
+        <f t="shared" si="1"/>
         <v>9.5024337479718765E-2</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="17">
         <v>88598</v>
       </c>
-      <c r="K31" s="14">
-        <f t="shared" ref="K31" si="77">(J31-J19)/J19</f>
+      <c r="K31" s="26">
+        <f t="shared" si="2"/>
         <v>0.16392538097740411</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="15">
         <v>39572</v>
       </c>
-      <c r="M31" s="13">
-        <f t="shared" ref="M31" si="78">(L31-L19)/L19</f>
+      <c r="M31" s="25">
+        <f t="shared" si="3"/>
         <v>-0.11805478169783147</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="17">
         <v>186360</v>
       </c>
-      <c r="O31" s="14">
-        <f t="shared" ref="O31" si="79">(N31-N19)/N19</f>
+      <c r="O31" s="26">
+        <f t="shared" si="4"/>
         <v>-7.9171669557225655E-2</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="15">
         <v>1634759</v>
       </c>
-      <c r="Q31" s="14">
-        <f t="shared" ref="Q31" si="80">(P31-P19)/P19</f>
+      <c r="Q31" s="26">
+        <f t="shared" si="5"/>
         <v>2.6172834236414859E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
         <v>42521</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="35">
+      <c r="C32" s="7"/>
+      <c r="D32" s="34">
         <v>185922</v>
       </c>
-      <c r="E32" s="36">
-        <f>(D32-D20)/D20</f>
+      <c r="E32" s="25">
+        <f t="shared" ref="E32:E33" si="6">(D32-D20)/D20</f>
         <v>9.9336573597757827E-2</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="35">
         <v>1545723</v>
       </c>
-      <c r="G32" s="38">
-        <f>(F32-F20)/F20</f>
-        <v>4.1814862069593034E-2</v>
-      </c>
-      <c r="H32" s="35">
+      <c r="G32" s="36">
+        <f>(F32-F19)/F19</f>
+        <v>0.17584729807137137</v>
+      </c>
+      <c r="H32" s="34">
         <v>2500</v>
       </c>
-      <c r="I32" s="36">
-        <f>(H32-H20)/H20</f>
+      <c r="I32" s="25">
+        <f t="shared" si="1"/>
         <v>0.40845070422535212</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="35">
         <v>91098</v>
       </c>
-      <c r="K32" s="38">
-        <f>(J32-J20)/J20</f>
+      <c r="K32" s="26">
+        <f t="shared" si="2"/>
         <v>0.16949740034662045</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="34">
         <v>6978</v>
       </c>
-      <c r="M32" s="36">
-        <f>(L32-L20)/L20</f>
+      <c r="M32" s="25">
+        <f t="shared" si="3"/>
         <v>-0.25448717948717947</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="35">
         <v>193337</v>
       </c>
-      <c r="O32" s="38">
-        <f>(N32-N20)/N20</f>
+      <c r="O32" s="26">
+        <f t="shared" si="4"/>
         <v>-8.6930444310110322E-2</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="34">
         <v>1830158</v>
       </c>
-      <c r="Q32" s="16">
-        <f>(P32-P20)/P20</f>
+      <c r="Q32" s="26">
+        <f t="shared" si="5"/>
         <v>3.205058077438841E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="39" t="s">
+    <row r="33" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="14">
+        <v>42545</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="34">
+        <v>145190</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="6"/>
+        <v>-0.19356809597867142</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1690914</v>
+      </c>
+      <c r="G33" s="36">
+        <f>(F33-F20)/F20</f>
+        <v>0.13967336688497475</v>
+      </c>
+      <c r="H33" s="34">
+        <v>10749</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" si="1"/>
+        <v>4.3997668997669E-2</v>
+      </c>
+      <c r="J33" s="35">
+        <v>101847</v>
+      </c>
+      <c r="K33" s="38">
+        <f t="shared" si="2"/>
+        <v>0.15484573255774398</v>
+      </c>
+      <c r="L33" s="34">
+        <v>62417</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="3"/>
+        <v>-0.16690691652652093</v>
+      </c>
+      <c r="N33" s="35">
+        <v>255754</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.1078328089135091</v>
+      </c>
+      <c r="P33" s="39">
+        <v>2048515</v>
+      </c>
+      <c r="Q33" s="40">
+        <f t="shared" si="5"/>
+        <v>4.8729974428291054E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D34" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="39" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="39" t="s">
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47"/>
+    </row>
+    <row r="35" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2785,9 +3050,9 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="D34:G35"/>
+    <mergeCell ref="H34:K35"/>
+    <mergeCell ref="L34:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/dts.xlsx
+++ b/excel/dts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\svn\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1529,8 +1529,8 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2957,57 +2957,57 @@
     </row>
     <row r="33" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
-        <v>42545</v>
+        <v>42551</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="34">
-        <v>145190</v>
+        <v>180616</v>
       </c>
       <c r="E33" s="37">
         <f t="shared" si="6"/>
-        <v>-0.19356809597867142</v>
+        <v>3.1992890468784713E-3</v>
       </c>
       <c r="F33" s="35">
-        <v>1690914</v>
+        <v>1726339</v>
       </c>
       <c r="G33" s="36">
         <f>(F33-F20)/F20</f>
-        <v>0.13967336688497475</v>
+        <v>0.16354976096645982</v>
       </c>
       <c r="H33" s="34">
-        <v>10749</v>
+        <v>11336</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="1"/>
-        <v>4.3997668997669E-2</v>
+        <v>0.10101010101010101</v>
       </c>
       <c r="J33" s="35">
-        <v>101847</v>
+        <v>102434</v>
       </c>
       <c r="K33" s="38">
         <f t="shared" si="2"/>
-        <v>0.15484573255774398</v>
+        <v>0.16150174054041797</v>
       </c>
       <c r="L33" s="34">
-        <v>62417</v>
+        <v>62751</v>
       </c>
       <c r="M33" s="37">
         <f t="shared" si="3"/>
-        <v>-0.16690691652652093</v>
+        <v>-0.16244894690478098</v>
       </c>
       <c r="N33" s="35">
-        <v>255754</v>
+        <v>256089</v>
       </c>
       <c r="O33" s="37">
         <f t="shared" si="4"/>
-        <v>-0.1078328089135091</v>
+        <v>-0.10666420154465475</v>
       </c>
       <c r="P33" s="39">
-        <v>2048515</v>
+        <v>2084862</v>
       </c>
       <c r="Q33" s="40">
         <f t="shared" si="5"/>
-        <v>4.8729974428291054E-3</v>
+        <v>2.2702556336981459E-2</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">

--- a/excel/dts.xlsx
+++ b/excel/dts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Withheld</t>
   </si>
@@ -53,6 +53,21 @@
   <si>
     <t>Individual growing - increased small business profits.</t>
   </si>
+  <si>
+    <t>Employment withholding and small businesses 16% Y/Y increase.</t>
+  </si>
+  <si>
+    <t>Corporate taxes down 10.7% Y/Y and 16% June16/June15.</t>
+  </si>
+  <si>
+    <t>No matter what is reported, corporations are paying 10.7%</t>
+  </si>
+  <si>
+    <t>less taxes on profits in 2016 than in 2015.</t>
+  </si>
+  <si>
+    <t>Total taxes up 2.3% Y/Y at the end of June.</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00%_);[Red]\(0.00%\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +217,25 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1029,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1153,22 +1187,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,14 +1564,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q35"/>
+  <dimension ref="B1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
@@ -1548,11 +1586,13 @@
     <col min="13" max="15" width="10.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="3.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="65.7109375" style="45" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1616,7 @@
       </c>
       <c r="Q2" s="44"/>
     </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
@@ -1622,8 +1662,9 @@
       <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S3" s="46"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>41670</v>
       </c>
@@ -1656,7 +1697,7 @@
       </c>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>41697</v>
       </c>
@@ -1689,7 +1730,7 @@
       </c>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>41726</v>
       </c>
@@ -1722,7 +1763,7 @@
       </c>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>41759</v>
       </c>
@@ -1755,7 +1796,7 @@
       </c>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>41788</v>
       </c>
@@ -1788,7 +1829,7 @@
       </c>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>41820</v>
       </c>
@@ -1821,7 +1862,7 @@
       </c>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>41845</v>
       </c>
@@ -1854,7 +1895,7 @@
       </c>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>41880</v>
       </c>
@@ -1887,7 +1928,7 @@
       </c>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>41912</v>
       </c>
@@ -1921,7 +1962,7 @@
       </c>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>41943</v>
       </c>
@@ -1954,7 +1995,7 @@
       </c>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>41971</v>
       </c>
@@ -1987,7 +2028,7 @@
       </c>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>42004</v>
       </c>
@@ -2020,7 +2061,7 @@
       </c>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>42034</v>
       </c>
@@ -2075,7 +2116,7 @@
         <v>8.3749130130030616E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11">
         <v>42061</v>
       </c>
@@ -2130,7 +2171,7 @@
         <v>7.4627880946638719E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <v>42094</v>
       </c>
@@ -2185,7 +2226,7 @@
         <v>9.0322826770256076E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="11">
         <v>42124</v>
       </c>
@@ -2240,7 +2281,7 @@
         <v>8.2015959943245689E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
         <v>42153</v>
       </c>
@@ -2294,8 +2335,11 @@
         <f t="shared" si="5"/>
         <v>8.330329794655697E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S20" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11">
         <v>42185</v>
       </c>
@@ -2350,7 +2394,7 @@
         <v>7.6652954432745002E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
         <v>42216</v>
       </c>
@@ -2404,8 +2448,11 @@
         <f t="shared" si="5"/>
         <v>9.172777758479736E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S22" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
         <v>42247</v>
       </c>
@@ -2460,7 +2507,7 @@
         <v>7.8848487421812316E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12">
         <v>42277</v>
       </c>
@@ -2514,8 +2561,11 @@
         <f t="shared" si="5"/>
         <v>7.3132692445846109E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13">
         <v>42307</v>
       </c>
@@ -2569,8 +2619,11 @@
         <f t="shared" si="5"/>
         <v>4.4794301290840657E-4</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S25" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
         <v>42338</v>
       </c>
@@ -2625,7 +2678,7 @@
         <v>4.1422531342302976E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
         <v>42369</v>
       </c>
@@ -2679,8 +2732,11 @@
         <f t="shared" si="5"/>
         <v>2.0837037900016557E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S27" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
         <v>42398</v>
       </c>
@@ -2735,7 +2791,7 @@
         <v>1.9895240539194229E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
         <v>42426</v>
       </c>
@@ -2790,7 +2846,7 @@
         <v>2.6879276313896545E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
         <v>42460</v>
       </c>
@@ -2845,7 +2901,7 @@
         <v>2.8446880495567036E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
         <v>42489</v>
       </c>
@@ -2900,7 +2956,7 @@
         <v>2.6172834236414859E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
         <v>42521</v>
       </c>
@@ -2955,7 +3011,7 @@
         <v>3.205058077438841E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
         <v>42551</v>
       </c>
@@ -3010,39 +3066,39 @@
         <v>2.2702556336981459E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D34" s="45" t="s">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D34" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="45" t="s">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="45" t="s">
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47"/>
-    </row>
-    <row r="35" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="49"/>
+    </row>
+    <row r="35" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/excel/dts.xlsx
+++ b/excel/dts.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1016,6 +1016,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1063,7 +1076,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1178,19 +1191,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1208,6 +1221,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1564,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S35"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1587,34 +1603,34 @@
     <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="65.7109375" style="45" customWidth="1"/>
+    <col min="19" max="19" width="65.7109375" style="42" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="42" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="44"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="2:19" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
@@ -1662,7 +1678,7 @@
       <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="46"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
@@ -2335,7 +2351,7 @@
         <f t="shared" si="5"/>
         <v>8.330329794655697E-2</v>
       </c>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2448,7 +2464,7 @@
         <f t="shared" si="5"/>
         <v>9.172777758479736E-2</v>
       </c>
-      <c r="S22" s="45" t="s">
+      <c r="S22" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2561,7 +2577,7 @@
         <f t="shared" si="5"/>
         <v>7.3132692445846109E-2</v>
       </c>
-      <c r="S24" s="45" t="s">
+      <c r="S24" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2619,7 +2635,7 @@
         <f t="shared" si="5"/>
         <v>4.4794301290840657E-4</v>
       </c>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="42" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2732,7 +2748,7 @@
         <f t="shared" si="5"/>
         <v>2.0837037900016557E-2</v>
       </c>
-      <c r="S27" s="45" t="s">
+      <c r="S27" s="42" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3011,15 +3027,15 @@
         <v>3.205058077438841E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="53">
         <v>42551</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="34">
         <v>180616</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="25">
         <f t="shared" si="6"/>
         <v>3.1992890468784713E-3</v>
       </c>
@@ -3033,72 +3049,127 @@
       <c r="H33" s="34">
         <v>11336</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="25">
         <f t="shared" si="1"/>
         <v>0.10101010101010101</v>
       </c>
       <c r="J33" s="35">
         <v>102434</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="26">
         <f t="shared" si="2"/>
         <v>0.16150174054041797</v>
       </c>
       <c r="L33" s="34">
         <v>62751</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="25">
         <f t="shared" si="3"/>
         <v>-0.16244894690478098</v>
       </c>
       <c r="N33" s="35">
         <v>256089</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="26">
         <f t="shared" si="4"/>
         <v>-0.10666420154465475</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="34">
         <v>2084862</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="Q33" s="26">
         <f t="shared" si="5"/>
         <v>2.2702556336981459E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D34" s="47" t="s">
+    <row r="34" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="14">
+        <v>42552</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="34">
+        <v>180616</v>
+      </c>
+      <c r="E34" s="37">
+        <f>(D34-D21)/D21</f>
+        <v>3.1992890468784713E-3</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1726339</v>
+      </c>
+      <c r="G34" s="36">
+        <f>(F34-F20)/F20</f>
+        <v>0.16354976096645982</v>
+      </c>
+      <c r="H34" s="34">
+        <v>11336</v>
+      </c>
+      <c r="I34" s="37">
+        <f>(H34-H21)/H21</f>
+        <v>0.10101010101010101</v>
+      </c>
+      <c r="J34" s="35">
+        <v>102434</v>
+      </c>
+      <c r="K34" s="38">
+        <f>(J34-J21)/J21</f>
+        <v>0.16150174054041797</v>
+      </c>
+      <c r="L34" s="34">
+        <v>62751</v>
+      </c>
+      <c r="M34" s="37">
+        <f>(L34-L21)/L21</f>
+        <v>-0.16244894690478098</v>
+      </c>
+      <c r="N34" s="35">
+        <v>256089</v>
+      </c>
+      <c r="O34" s="37">
+        <f>(N34-N21)/N21</f>
+        <v>-0.10666420154465475</v>
+      </c>
+      <c r="P34" s="39">
+        <v>2084862</v>
+      </c>
+      <c r="Q34" s="40">
+        <f>(P34-P21)/P21</f>
+        <v>2.2702556336981459E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="47" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="47" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="49"/>
-    </row>
-    <row r="35" spans="2:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="49"/>
+    </row>
+    <row r="36" spans="2:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3106,9 +3177,9 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D34:G35"/>
-    <mergeCell ref="H34:K35"/>
-    <mergeCell ref="L34:O35"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:K36"/>
+    <mergeCell ref="L35:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
